--- a/3D_Classification_ResNet/train_sheet_format.xlsx
+++ b/3D_Classification_ResNet/train_sheet_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNUBH\SP_work\Python_Project\3D_Classification_ResNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6880837-6B84-4F09-98A8-AC21541C24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E02EE-C4A8-4341-B109-B043B92DEE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D5CBA35-E58F-4687-8772-72B72BCD9978}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,12 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:/Users/SNUBH/SP_work/Python_Project/yolov3_DICOM/data/billion/bone_coronal_20210914/train_1.txt</t>
-  </si>
-  <si>
-    <t>C:/Users/SNUBH/SP_work/Python_Project/yolov3_DICOM/data/billion/bone_coronal_20210914/val_1.txt</t>
-  </si>
-  <si>
     <t>train_checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +261,45 @@
   </si>
   <si>
     <t>./temp_flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_add_dir</t>
+  </si>
+  <si>
+    <t>./temp_crop_64_linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./temp_crop_64_linear_12normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./yolo_train_list/train_0.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./yolo_train_list/val_0.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./results/train_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,20 +667,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556154AD-CC9A-4450-9445-E7403E92AC38}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="AF2" sqref="A2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="21" width="15.625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="22" width="15.625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -668,256 +697,262 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
